--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_23_3.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_23_3.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9949351010384866</v>
+        <v>0.9995434028193155</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9943586817337183</v>
+        <v>0.9985474814646655</v>
       </c>
       <c r="D2" t="n">
-        <v>0.991570876087415</v>
+        <v>0.9991483031747803</v>
       </c>
       <c r="E2" t="n">
-        <v>0.994922894414897</v>
+        <v>0.9994796384198511</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9944236732327167</v>
+        <v>0.9994786959286082</v>
       </c>
       <c r="G2" t="n">
-        <v>0.004727860857203303</v>
+        <v>0.0004262134258690818</v>
       </c>
       <c r="H2" t="n">
-        <v>0.005265922976321249</v>
+        <v>0.001355862294539846</v>
       </c>
       <c r="I2" t="n">
-        <v>0.008194507216436348</v>
+        <v>0.000327874706562252</v>
       </c>
       <c r="J2" t="n">
-        <v>0.005738625421643488</v>
+        <v>0.0007319591175603898</v>
       </c>
       <c r="K2" t="n">
-        <v>0.006966566319039918</v>
+        <v>0.0005299169120613211</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008031248282714652</v>
+        <v>0.002359855302337255</v>
       </c>
       <c r="M2" t="n">
-        <v>0.06875944194947559</v>
+        <v>0.02064493705171033</v>
       </c>
       <c r="N2" t="n">
-        <v>1.007150445592725</v>
+        <v>1.000644607784496</v>
       </c>
       <c r="O2" t="n">
-        <v>0.07168667374493173</v>
+        <v>0.02152383476291285</v>
       </c>
       <c r="P2" t="n">
-        <v>92.70856485767385</v>
+        <v>97.52114067492134</v>
       </c>
       <c r="Q2" t="n">
-        <v>142.6824736772701</v>
+        <v>147.4950494945176</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9948482190189583</v>
+        <v>0.9995339804528693</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9942792714838777</v>
+        <v>0.9985374294050073</v>
       </c>
       <c r="D3" t="n">
-        <v>0.991488454157987</v>
+        <v>0.9991345886141303</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9948252780936759</v>
+        <v>0.9994674887422208</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9943474460152053</v>
+        <v>0.9994676928116794</v>
       </c>
       <c r="G3" t="n">
-        <v>0.004808961408753064</v>
+        <v>0.0004350087913524984</v>
       </c>
       <c r="H3" t="n">
-        <v>0.005340048958840278</v>
+        <v>0.001365245450996308</v>
       </c>
       <c r="I3" t="n">
-        <v>0.008274635009371209</v>
+        <v>0.0003331543523418395</v>
       </c>
       <c r="J3" t="n">
-        <v>0.005848960629989393</v>
+        <v>0.0007490492865047555</v>
       </c>
       <c r="K3" t="n">
-        <v>0.007061797819680301</v>
+        <v>0.0005411018194232974</v>
       </c>
       <c r="L3" t="n">
-        <v>0.008101122772486433</v>
+        <v>0.002382767401481825</v>
       </c>
       <c r="M3" t="n">
-        <v>0.06934667554218489</v>
+        <v>0.02085686437009404</v>
       </c>
       <c r="N3" t="n">
-        <v>1.007273102561471</v>
+        <v>1.00065790994889</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0722989070874238</v>
+        <v>0.02174478426599019</v>
       </c>
       <c r="P3" t="n">
-        <v>92.67454828303086</v>
+        <v>97.48028863414814</v>
       </c>
       <c r="Q3" t="n">
-        <v>142.6484571026271</v>
+        <v>147.4541974537444</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9947595698509132</v>
+        <v>0.9995243635904939</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9941981698383509</v>
+        <v>0.9985271655128506</v>
       </c>
       <c r="D4" t="n">
-        <v>0.991404618091465</v>
+        <v>0.9991205596428061</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9947255314232788</v>
+        <v>0.9994550497940232</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9942697048839093</v>
+        <v>0.9994564300171531</v>
       </c>
       <c r="G4" t="n">
-        <v>0.004891711515874387</v>
+        <v>0.0004439857102485343</v>
       </c>
       <c r="H4" t="n">
-        <v>0.005415753784988856</v>
+        <v>0.001374826343791842</v>
       </c>
       <c r="I4" t="n">
-        <v>0.008356137578230971</v>
+        <v>0.0003385550356836968</v>
       </c>
       <c r="J4" t="n">
-        <v>0.005961703760670917</v>
+        <v>0.0007665463537237983</v>
       </c>
       <c r="K4" t="n">
-        <v>0.007158920669450944</v>
+        <v>0.0005525506947037475</v>
       </c>
       <c r="L4" t="n">
-        <v>0.008171734276923149</v>
+        <v>0.002405916832963181</v>
       </c>
       <c r="M4" t="n">
-        <v>0.06994077148469545</v>
+        <v>0.02107096842218065</v>
       </c>
       <c r="N4" t="n">
-        <v>1.007398254328123</v>
+        <v>1.000671486695773</v>
       </c>
       <c r="O4" t="n">
-        <v>0.07291829492415516</v>
+        <v>0.02196800317083062</v>
       </c>
       <c r="P4" t="n">
-        <v>92.64042606697181</v>
+        <v>97.43943636034979</v>
       </c>
       <c r="Q4" t="n">
-        <v>142.6143348865681</v>
+        <v>147.413345179946</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9946690840202748</v>
+        <v>0.9995145448921323</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9941152968252954</v>
+        <v>0.9985166890106237</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9913191001767243</v>
+        <v>0.9991062811364179</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9946235684827941</v>
+        <v>0.9994423467993251</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9941903068097552</v>
+        <v>0.9994449372817296</v>
       </c>
       <c r="G5" t="n">
-        <v>0.004976176066906497</v>
+        <v>0.0004531510341780348</v>
       </c>
       <c r="H5" t="n">
-        <v>0.005493112104971252</v>
+        <v>0.001384605698755375</v>
       </c>
       <c r="I5" t="n">
-        <v>0.008439275182653918</v>
+        <v>0.0003440517816543147</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006076951929637125</v>
+        <v>0.000784414838147576</v>
       </c>
       <c r="K5" t="n">
-        <v>0.007258113556145522</v>
+        <v>0.0005642333099009452</v>
       </c>
       <c r="L5" t="n">
-        <v>0.008243121673697134</v>
+        <v>0.002429300183567221</v>
       </c>
       <c r="M5" t="n">
-        <v>0.07054201632294399</v>
+        <v>0.02128734446045431</v>
       </c>
       <c r="N5" t="n">
-        <v>1.0075259990302</v>
+        <v>1.000685348387578</v>
       </c>
       <c r="O5" t="n">
-        <v>0.07354513599991634</v>
+        <v>0.02219359078501373</v>
       </c>
       <c r="P5" t="n">
-        <v>92.60618708190094</v>
+        <v>97.39857015853613</v>
       </c>
       <c r="Q5" t="n">
-        <v>142.5800959014972</v>
+        <v>147.3724789781324</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9945767733232558</v>
+        <v>0.9995045204286305</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9940306416775518</v>
+        <v>0.9985059941554866</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9912320124492758</v>
+        <v>0.9990916983665269</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9945193671839467</v>
+        <v>0.9994293492717992</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9941092853916021</v>
+        <v>0.9994331831492359</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0050623440506024</v>
+        <v>0.0004625084308338748</v>
       </c>
       <c r="H6" t="n">
-        <v>0.005572133969458389</v>
+        <v>0.001394588876576003</v>
       </c>
       <c r="I6" t="n">
-        <v>0.008523938905531945</v>
+        <v>0.0003496656588665689</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006194730103147634</v>
+        <v>0.0008026976229288527</v>
       </c>
       <c r="K6" t="n">
-        <v>0.007359334504339789</v>
+        <v>0.0005761816408977108</v>
       </c>
       <c r="L6" t="n">
-        <v>0.008315254257180334</v>
+        <v>0.00245291777517385</v>
       </c>
       <c r="M6" t="n">
-        <v>0.07115015144469054</v>
+        <v>0.02150600917961942</v>
       </c>
       <c r="N6" t="n">
-        <v>1.007656320014227</v>
+        <v>1.000699500571345</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0741791606928089</v>
+        <v>0.02242156451397207</v>
       </c>
       <c r="P6" t="n">
-        <v>92.57185130368647</v>
+        <v>97.35769154469588</v>
       </c>
       <c r="Q6" t="n">
-        <v>142.5457601232827</v>
+        <v>147.3316003642921</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9944826228903894</v>
+        <v>0.9994942861921026</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9939442159483078</v>
+        <v>0.9984950777603873</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9911434610040359</v>
+        <v>0.9990768700944196</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9944129669901928</v>
+        <v>0.9994160544802347</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9940266997609236</v>
+        <v>0.9994211768567134</v>
       </c>
       <c r="G7" t="n">
-        <v>0.005150229346956802</v>
+        <v>0.0004720616414016937</v>
       </c>
       <c r="H7" t="n">
-        <v>0.005652808594056626</v>
+        <v>0.001404778852226812</v>
       </c>
       <c r="I7" t="n">
-        <v>0.008610025605000298</v>
+        <v>0.0003553740461964719</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00631499367586823</v>
+        <v>0.0008213985498860124</v>
       </c>
       <c r="K7" t="n">
-        <v>0.007462509640434264</v>
+        <v>0.0005883862980412422</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00838811049683931</v>
+        <v>0.002476775885159516</v>
       </c>
       <c r="M7" t="n">
-        <v>0.07176509839021195</v>
+        <v>0.02172697957383156</v>
       </c>
       <c r="N7" t="n">
-        <v>1.007789238272391</v>
+        <v>1.000713948905267</v>
       </c>
       <c r="O7" t="n">
-        <v>0.07482028720291682</v>
+        <v>0.02265194207533759</v>
       </c>
       <c r="P7" t="n">
-        <v>92.5374280638168</v>
+        <v>97.31680196943125</v>
       </c>
       <c r="Q7" t="n">
-        <v>142.511336883413</v>
+        <v>147.2907107890275</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9943865039694078</v>
+        <v>0.9994838394510159</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9938558537008202</v>
+        <v>0.998483934630366</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9910529350719623</v>
+        <v>0.9990617625742351</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9943041002489262</v>
+        <v>0.9994024598400097</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9939422301100053</v>
+        <v>0.999408910225957</v>
       </c>
       <c r="G8" t="n">
-        <v>0.005239952140560197</v>
+        <v>0.0004818132156470965</v>
       </c>
       <c r="H8" t="n">
-        <v>0.005735290873431859</v>
+        <v>0.001415180474974847</v>
       </c>
       <c r="I8" t="n">
-        <v>0.008698031833327851</v>
+        <v>0.0003611899346684177</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006438045174114929</v>
+        <v>0.0008405212546402116</v>
       </c>
       <c r="K8" t="n">
-        <v>0.00756803850372139</v>
+        <v>0.0006008555946543147</v>
       </c>
       <c r="L8" t="n">
-        <v>0.008461762052408988</v>
+        <v>0.002500873218751552</v>
       </c>
       <c r="M8" t="n">
-        <v>0.07238751370616481</v>
+        <v>0.0219502440908318</v>
       </c>
       <c r="N8" t="n">
-        <v>1.007924935572601</v>
+        <v>1.000728697245625</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0754692000274471</v>
+        <v>0.0228847114250478</v>
       </c>
       <c r="P8" t="n">
-        <v>92.50288582834355</v>
+        <v>97.27590807684618</v>
       </c>
       <c r="Q8" t="n">
-        <v>142.4767946479398</v>
+        <v>147.2498168964424</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.994288408151345</v>
+        <v>0.9994731799010587</v>
       </c>
       <c r="C9" t="n">
-        <v>0.993765562189603</v>
+        <v>0.9984725613076441</v>
       </c>
       <c r="D9" t="n">
-        <v>0.990960752200564</v>
+        <v>0.9990463711243656</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9941929109866446</v>
+        <v>0.9993885776545987</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9938560651433656</v>
+        <v>0.9993963863632548</v>
       </c>
       <c r="G9" t="n">
-        <v>0.005331520280813013</v>
+        <v>0.0004917634376320419</v>
       </c>
       <c r="H9" t="n">
-        <v>0.005819574035813872</v>
+        <v>0.00142579697250462</v>
       </c>
       <c r="I9" t="n">
-        <v>0.008787648881640223</v>
+        <v>0.0003671151265443383</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006563721805504112</v>
+        <v>0.0008600484306864812</v>
       </c>
       <c r="K9" t="n">
-        <v>0.007675685343572167</v>
+        <v>0.0006135863731278895</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00853620854500301</v>
+        <v>0.002525202429055292</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0730172601568493</v>
+        <v>0.02217573984407379</v>
       </c>
       <c r="N9" t="n">
-        <v>1.008063423786336</v>
+        <v>1.000743746022035</v>
       </c>
       <c r="O9" t="n">
-        <v>0.07612575608829211</v>
+        <v>0.02311980699934587</v>
       </c>
       <c r="P9" t="n">
-        <v>92.46823770110645</v>
+        <v>97.23502554984594</v>
       </c>
       <c r="Q9" t="n">
-        <v>142.4421465207027</v>
+        <v>147.2089343694422</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9941883940958438</v>
+        <v>0.9994622886037166</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9936734086073478</v>
+        <v>0.9984609502336294</v>
       </c>
       <c r="D10" t="n">
-        <v>0.990867063599452</v>
+        <v>0.9990306576153067</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9940792917643412</v>
+        <v>0.9993743583783921</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9937682150918826</v>
+        <v>0.9993835773281693</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00542487901151367</v>
+        <v>0.0005019299856281855</v>
       </c>
       <c r="H10" t="n">
-        <v>0.005905595359774394</v>
+        <v>0.001436635400430015</v>
       </c>
       <c r="I10" t="n">
-        <v>0.008878729749103071</v>
+        <v>0.0003731643004042929</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006692145007773325</v>
+        <v>0.0008800497706424546</v>
       </c>
       <c r="K10" t="n">
-        <v>0.007785437378438198</v>
+        <v>0.0006266070355233737</v>
       </c>
       <c r="L10" t="n">
-        <v>0.008611393892234346</v>
+        <v>0.002549794179536702</v>
       </c>
       <c r="M10" t="n">
-        <v>0.07365377798533942</v>
+        <v>0.02240379400075321</v>
       </c>
       <c r="N10" t="n">
-        <v>1.008204620099985</v>
+        <v>1.000759121971224</v>
       </c>
       <c r="O10" t="n">
-        <v>0.07678937179851461</v>
+        <v>0.02335756989361231</v>
       </c>
       <c r="P10" t="n">
-        <v>92.43351936365887</v>
+        <v>97.19409983771939</v>
       </c>
       <c r="Q10" t="n">
-        <v>142.4074281832551</v>
+        <v>147.1680086573156</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9940862813610504</v>
+        <v>0.9994511789519321</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9935792662210613</v>
+        <v>0.9984490973411885</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9907715048936435</v>
+        <v>0.9990146713606975</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9939631106364027</v>
+        <v>0.9993598333460652</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9936784784963609</v>
+        <v>0.9993705005790051</v>
       </c>
       <c r="G11" t="n">
-        <v>0.005520196767212288</v>
+        <v>0.0005123003579115505</v>
       </c>
       <c r="H11" t="n">
-        <v>0.005993473144999685</v>
+        <v>0.001447699555241747</v>
       </c>
       <c r="I11" t="n">
-        <v>0.008971628668666043</v>
+        <v>0.0003793184721515601</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006823463918346897</v>
+        <v>0.0009004811980384686</v>
       </c>
       <c r="K11" t="n">
-        <v>0.007897546293506469</v>
+        <v>0.0006398998350950144</v>
       </c>
       <c r="L11" t="n">
-        <v>0.008687395474632176</v>
+        <v>0.002574610714967935</v>
       </c>
       <c r="M11" t="n">
-        <v>0.07429802667105155</v>
+        <v>0.02263405305974938</v>
       </c>
       <c r="N11" t="n">
-        <v>1.008348779254988</v>
+        <v>1.000774806185508</v>
       </c>
       <c r="O11" t="n">
-        <v>0.07746104748455615</v>
+        <v>0.02359763155745192</v>
       </c>
       <c r="P11" t="n">
-        <v>92.39868354618866</v>
+        <v>97.15319893676545</v>
       </c>
       <c r="Q11" t="n">
-        <v>142.3725923657849</v>
+        <v>147.1271077563617</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9939821422884942</v>
+        <v>0.9994398286862741</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9934830887601315</v>
+        <v>0.9984369990569744</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9906741599903951</v>
+        <v>0.9989983502673563</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9938445159946037</v>
+        <v>0.9993449706030352</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9935869551310811</v>
+        <v>0.9993571221018817</v>
       </c>
       <c r="G12" t="n">
-        <v>0.005617406020266471</v>
+        <v>0.0005228953326842537</v>
       </c>
       <c r="H12" t="n">
-        <v>0.006083250583075001</v>
+        <v>0.001458992772502364</v>
       </c>
       <c r="I12" t="n">
-        <v>0.009066264068551527</v>
+        <v>0.0003856015455781447</v>
       </c>
       <c r="J12" t="n">
-        <v>0.006957510810792072</v>
+        <v>0.0009213876613281659</v>
       </c>
       <c r="K12" t="n">
-        <v>0.008011887439671798</v>
+        <v>0.0006534993476912004</v>
       </c>
       <c r="L12" t="n">
-        <v>0.008764171909965889</v>
+        <v>0.002599704830750901</v>
       </c>
       <c r="M12" t="n">
-        <v>0.07494935636992803</v>
+        <v>0.02286690474647266</v>
       </c>
       <c r="N12" t="n">
-        <v>1.008495799122126</v>
+        <v>1.000790830089966</v>
       </c>
       <c r="O12" t="n">
-        <v>0.07814010563715214</v>
+        <v>0.02384039622254844</v>
       </c>
       <c r="P12" t="n">
-        <v>92.36377056771867</v>
+        <v>97.11225848527714</v>
       </c>
       <c r="Q12" t="n">
-        <v>142.3376793873149</v>
+        <v>147.0861673048734</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9938758573179486</v>
+        <v>0.9994282509016332</v>
       </c>
       <c r="C13" t="n">
-        <v>0.993384862620407</v>
+        <v>0.9984246475813345</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9905750217421834</v>
+        <v>0.9989817114057389</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9937232654150289</v>
+        <v>0.9993297946894455</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9934935214499265</v>
+        <v>0.9993434761095555</v>
       </c>
       <c r="G13" t="n">
-        <v>0.005716618374899828</v>
+        <v>0.0005337026864405539</v>
       </c>
       <c r="H13" t="n">
-        <v>0.006174940372878595</v>
+        <v>0.001470522332844959</v>
       </c>
       <c r="I13" t="n">
-        <v>0.009162642897338596</v>
+        <v>0.0003920069491311393</v>
       </c>
       <c r="J13" t="n">
-        <v>0.007094559695569744</v>
+        <v>0.0009427346414724386</v>
       </c>
       <c r="K13" t="n">
-        <v>0.008128615164455549</v>
+        <v>0.000667370795301789</v>
       </c>
       <c r="L13" t="n">
-        <v>0.008841776637305475</v>
+        <v>0.002625033249800389</v>
       </c>
       <c r="M13" t="n">
-        <v>0.07560832212726208</v>
+        <v>0.02310200611290184</v>
       </c>
       <c r="N13" t="n">
-        <v>1.008645848492308</v>
+        <v>1.000807175197694</v>
       </c>
       <c r="O13" t="n">
-        <v>0.07882712493102306</v>
+        <v>0.02408550634087343</v>
       </c>
       <c r="P13" t="n">
-        <v>92.32875568322673</v>
+        <v>97.07134328204323</v>
       </c>
       <c r="Q13" t="n">
-        <v>142.302664502823</v>
+        <v>147.0452521016395</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.993767361567761</v>
+        <v>0.9994164236291575</v>
       </c>
       <c r="C14" t="n">
-        <v>0.993284468721875</v>
+        <v>0.9984120422765309</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9904739335173819</v>
+        <v>0.9989647872166236</v>
       </c>
       <c r="E14" t="n">
-        <v>0.993599222000504</v>
+        <v>0.9993142602272417</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9933980878842972</v>
+        <v>0.9993295233469858</v>
       </c>
       <c r="G14" t="n">
-        <v>0.005817894395286979</v>
+        <v>0.0005447429261393752</v>
       </c>
       <c r="H14" t="n">
-        <v>0.006268653670375334</v>
+        <v>0.001482288831570281</v>
       </c>
       <c r="I14" t="n">
-        <v>0.009260917426960358</v>
+        <v>0.0003985221941991678</v>
       </c>
       <c r="J14" t="n">
-        <v>0.00723476530682766</v>
+        <v>0.0009645859688576628</v>
       </c>
       <c r="K14" t="n">
-        <v>0.008247841366894009</v>
+        <v>0.0006815540815284153</v>
       </c>
       <c r="L14" t="n">
-        <v>0.008920219357276467</v>
+        <v>0.002650625726421736</v>
       </c>
       <c r="M14" t="n">
-        <v>0.07627512304340767</v>
+        <v>0.02333972849326605</v>
       </c>
       <c r="N14" t="n">
-        <v>1.008799018963161</v>
+        <v>1.000823872523542</v>
       </c>
       <c r="O14" t="n">
-        <v>0.07952231294263715</v>
+        <v>0.02433334905512291</v>
       </c>
       <c r="P14" t="n">
-        <v>92.29363374090229</v>
+        <v>97.0303931394826</v>
       </c>
       <c r="Q14" t="n">
-        <v>142.2675425604985</v>
+        <v>147.0043019590788</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9936567037378601</v>
+        <v>0.9994043521369131</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9931819576761022</v>
+        <v>0.9983991747331294</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9903709135087922</v>
+        <v>0.9989475305441086</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9934726391827554</v>
+        <v>0.999298389219159</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9933007428553098</v>
+        <v>0.9993152747755057</v>
       </c>
       <c r="G15" t="n">
-        <v>0.005921188622182163</v>
+        <v>0.000556011134272187</v>
       </c>
       <c r="H15" t="n">
-        <v>0.006364343231889416</v>
+        <v>0.001494300118515606</v>
       </c>
       <c r="I15" t="n">
-        <v>0.009361069970994581</v>
+        <v>0.0004051654342226198</v>
       </c>
       <c r="J15" t="n">
-        <v>0.007377841192034111</v>
+        <v>0.0009869106936531023</v>
       </c>
       <c r="K15" t="n">
-        <v>0.008369455581514347</v>
+        <v>0.0006960380639378611</v>
       </c>
       <c r="L15" t="n">
-        <v>0.008999458320884375</v>
+        <v>0.0026771788707041</v>
       </c>
       <c r="M15" t="n">
-        <v>0.07694926004960778</v>
+        <v>0.02357988834308142</v>
       </c>
       <c r="N15" t="n">
-        <v>1.008955241781845</v>
+        <v>1.00084091463024</v>
       </c>
       <c r="O15" t="n">
-        <v>0.08022514935684719</v>
+        <v>0.02458373300694435</v>
       </c>
       <c r="P15" t="n">
-        <v>92.25843613893194</v>
+        <v>96.98944447648961</v>
       </c>
       <c r="Q15" t="n">
-        <v>142.2323449585282</v>
+        <v>146.9633532960858</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9935437551364099</v>
+        <v>0.9993920350563414</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9930772377168188</v>
+        <v>0.9983860426828003</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9902659072699675</v>
+        <v>0.9989299283720424</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9933432010503467</v>
+        <v>0.9992821663281873</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9932013333714366</v>
+        <v>0.9993007173189726</v>
       </c>
       <c r="G16" t="n">
-        <v>0.006026621183765235</v>
+        <v>0.000567508588328531</v>
       </c>
       <c r="H16" t="n">
-        <v>0.006462094717205566</v>
+        <v>0.001506558311067547</v>
       </c>
       <c r="I16" t="n">
-        <v>0.009463153460422809</v>
+        <v>0.0004119416799829974</v>
       </c>
       <c r="J16" t="n">
-        <v>0.007524144424204486</v>
+        <v>0.001009730389443298</v>
       </c>
       <c r="K16" t="n">
-        <v>0.008493648942313648</v>
+        <v>0.0007108360347131478</v>
       </c>
       <c r="L16" t="n">
-        <v>0.009079554222042674</v>
+        <v>0.002704950051906678</v>
       </c>
       <c r="M16" t="n">
-        <v>0.07763131574155648</v>
+        <v>0.02382243875694785</v>
       </c>
       <c r="N16" t="n">
-        <v>1.009114698630951</v>
+        <v>1.000858303449871</v>
       </c>
       <c r="O16" t="n">
-        <v>0.08093624157165208</v>
+        <v>0.02483660929407765</v>
       </c>
       <c r="P16" t="n">
-        <v>92.22313751931262</v>
+        <v>96.94850935020935</v>
       </c>
       <c r="Q16" t="n">
-        <v>142.1970463389088</v>
+        <v>146.9224181698056</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9934285284556681</v>
+        <v>0.9993794564142269</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9929702698144032</v>
+        <v>0.9983726362174414</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9901590326450722</v>
+        <v>0.9989119887714665</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9932109901188809</v>
+        <v>0.9992655697803164</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9930999426109384</v>
+        <v>0.9992858374405299</v>
       </c>
       <c r="G17" t="n">
-        <v>0.006134180232370996</v>
+        <v>0.0005792501986038995</v>
       </c>
       <c r="H17" t="n">
-        <v>0.006561944558762283</v>
+        <v>0.001519072658004234</v>
       </c>
       <c r="I17" t="n">
-        <v>0.009567053331161587</v>
+        <v>0.0004188478244002718</v>
       </c>
       <c r="J17" t="n">
-        <v>0.007673581736391617</v>
+        <v>0.001033075684325854</v>
       </c>
       <c r="K17" t="n">
-        <v>0.008620317533776602</v>
+        <v>0.0007259617543630629</v>
       </c>
       <c r="L17" t="n">
-        <v>0.009160479133778751</v>
+        <v>0.002733004972025917</v>
       </c>
       <c r="M17" t="n">
-        <v>0.07832100760569284</v>
+        <v>0.02406761721907467</v>
       </c>
       <c r="N17" t="n">
-        <v>1.009277371591998</v>
+        <v>1.000876061532856</v>
       </c>
       <c r="O17" t="n">
-        <v>0.08165529504630369</v>
+        <v>0.02509222551092659</v>
       </c>
       <c r="P17" t="n">
-        <v>92.18775766240564</v>
+        <v>96.90755210357594</v>
       </c>
       <c r="Q17" t="n">
-        <v>142.1616664820019</v>
+        <v>146.8814609231722</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9933109584693169</v>
+        <v>0.9993666130000441</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9928610290659596</v>
+        <v>0.9983589530029564</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9900500508049894</v>
+        <v>0.9988937213207831</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9930758484632963</v>
+        <v>0.9992486094160478</v>
       </c>
       <c r="F18" t="n">
-        <v>0.99299640620986</v>
+        <v>0.999270643762405</v>
       </c>
       <c r="G18" t="n">
-        <v>0.006243926653903827</v>
+        <v>0.0005912389619827009</v>
       </c>
       <c r="H18" t="n">
-        <v>0.006663916002319694</v>
+        <v>0.0015318453381023</v>
       </c>
       <c r="I18" t="n">
-        <v>0.009673001764744981</v>
+        <v>0.0004258801801107595</v>
       </c>
       <c r="J18" t="n">
-        <v>0.007826331630452661</v>
+        <v>0.001056932736301308</v>
       </c>
       <c r="K18" t="n">
-        <v>0.008749666697598822</v>
+        <v>0.0007414064582060337</v>
       </c>
       <c r="L18" t="n">
-        <v>0.009242236533802274</v>
+        <v>0.002761353259445079</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0790185209549244</v>
+        <v>0.02431540585683695</v>
       </c>
       <c r="N18" t="n">
-        <v>1.0094433527492</v>
+        <v>1.000894193411702</v>
       </c>
       <c r="O18" t="n">
-        <v>0.08238250298286373</v>
+        <v>0.02535056302399161</v>
       </c>
       <c r="P18" t="n">
-        <v>92.15229204610023</v>
+        <v>96.86658057456687</v>
       </c>
       <c r="Q18" t="n">
-        <v>142.1262008656965</v>
+        <v>146.8404893941631</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9931910266006356</v>
+        <v>0.9993535032530816</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9927494902486774</v>
+        <v>0.9983449850700591</v>
       </c>
       <c r="D19" t="n">
-        <v>0.989939130738626</v>
+        <v>0.9988750736299551</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9929378878193387</v>
+        <v>0.9992312836054016</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9928908404641363</v>
+        <v>0.9992551252365339</v>
       </c>
       <c r="G19" t="n">
-        <v>0.006355877788917234</v>
+        <v>0.0006034763353209489</v>
       </c>
       <c r="H19" t="n">
-        <v>0.006768032592264328</v>
+        <v>0.001544883790340583</v>
       </c>
       <c r="I19" t="n">
-        <v>0.009780834475912686</v>
+        <v>0.0004330589155213433</v>
       </c>
       <c r="J19" t="n">
-        <v>0.007982267812068474</v>
+        <v>0.001081303838156977</v>
       </c>
       <c r="K19" t="n">
-        <v>0.00888155114399058</v>
+        <v>0.0007571813768391601</v>
       </c>
       <c r="L19" t="n">
-        <v>0.009324840399805811</v>
+        <v>0.002789987852208601</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0797237592497822</v>
+        <v>0.02456575533788751</v>
       </c>
       <c r="N19" t="n">
-        <v>1.009612668328514</v>
+        <v>1.000912701289767</v>
       </c>
       <c r="O19" t="n">
-        <v>0.08311776473197816</v>
+        <v>0.02561157040074536</v>
       </c>
       <c r="P19" t="n">
-        <v>92.11675051632889</v>
+        <v>96.82560746117662</v>
       </c>
       <c r="Q19" t="n">
-        <v>142.0906593359251</v>
+        <v>146.7995162807728</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9930686488439007</v>
+        <v>0.9993401264259482</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9926355635598114</v>
+        <v>0.9983307319343536</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9898260895467934</v>
+        <v>0.9988561068790364</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9927968786884837</v>
+        <v>0.9992135612681646</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9927830703935877</v>
+        <v>0.9992392719436669</v>
       </c>
       <c r="G20" t="n">
-        <v>0.006470112053066667</v>
+        <v>0.0006159630162751364</v>
       </c>
       <c r="H20" t="n">
-        <v>0.006874378155517096</v>
+        <v>0.001558188466881286</v>
       </c>
       <c r="I20" t="n">
-        <v>0.00989072927302726</v>
+        <v>0.0004403604783636416</v>
       </c>
       <c r="J20" t="n">
-        <v>0.008141649682199884</v>
+        <v>0.001106232708427003</v>
       </c>
       <c r="K20" t="n">
-        <v>0.009016189477613573</v>
+        <v>0.0007732965933953221</v>
       </c>
       <c r="L20" t="n">
-        <v>0.00940831488338467</v>
+        <v>0.002818894084337678</v>
       </c>
       <c r="M20" t="n">
-        <v>0.08043700673860674</v>
+        <v>0.02481860222242857</v>
       </c>
       <c r="N20" t="n">
-        <v>1.009785436926258</v>
+        <v>1.000931586222191</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0838613766430278</v>
+        <v>0.02587518150062653</v>
       </c>
       <c r="P20" t="n">
-        <v>92.08112370350547</v>
+        <v>96.78464726949505</v>
       </c>
       <c r="Q20" t="n">
-        <v>142.0550325231017</v>
+        <v>146.7585560890913</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9929437271144652</v>
+        <v>0.9993264761695936</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9925191427471826</v>
+        <v>0.9983161916944413</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9897106646167749</v>
+        <v>0.9988367896646634</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9926527366289214</v>
+        <v>0.9991954747603635</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9926729441416238</v>
+        <v>0.99922310032413</v>
       </c>
       <c r="G21" t="n">
-        <v>0.006586721004064496</v>
+        <v>0.000628704931405116</v>
       </c>
       <c r="H21" t="n">
-        <v>0.006983051873823074</v>
+        <v>0.001571761142596616</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01000294145922858</v>
+        <v>0.0004477969578791291</v>
       </c>
       <c r="J21" t="n">
-        <v>0.008304572684975167</v>
+        <v>0.001131673833972898</v>
       </c>
       <c r="K21" t="n">
-        <v>0.009153771414575271</v>
+        <v>0.0007897353959260134</v>
       </c>
       <c r="L21" t="n">
-        <v>0.00949268815987059</v>
+        <v>0.00284808938835642</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0811586163267</v>
+        <v>0.02507398914024484</v>
       </c>
       <c r="N21" t="n">
-        <v>1.009961797014873</v>
+        <v>1.000950857172338</v>
       </c>
       <c r="O21" t="n">
-        <v>0.08461370664522397</v>
+        <v>0.02614144076825804</v>
       </c>
       <c r="P21" t="n">
-        <v>92.04539925151924</v>
+        <v>96.74369703758641</v>
       </c>
       <c r="Q21" t="n">
-        <v>142.0193080711155</v>
+        <v>146.7176058571827</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9928163041619966</v>
+        <v>0.9993125444435527</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9924002723696222</v>
+        <v>0.9983013471801215</v>
       </c>
       <c r="D22" t="n">
-        <v>0.989593177987488</v>
+        <v>0.998817108783781</v>
       </c>
       <c r="E22" t="n">
-        <v>0.992505553037953</v>
+        <v>0.9991769758168592</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9925606627934809</v>
+        <v>0.999206574483857</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00670566473697278</v>
+        <v>0.0006417095861322356</v>
       </c>
       <c r="H22" t="n">
-        <v>0.007094012153469123</v>
+        <v>0.001585617845115246</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01011715795924815</v>
+        <v>0.0004553734368010825</v>
       </c>
       <c r="J22" t="n">
-        <v>0.008470933514511291</v>
+        <v>0.001157695106257066</v>
       </c>
       <c r="K22" t="n">
-        <v>0.009294045736879718</v>
+        <v>0.000806534271529074</v>
       </c>
       <c r="L22" t="n">
-        <v>0.009577916732016334</v>
+        <v>0.002877580036420439</v>
       </c>
       <c r="M22" t="n">
-        <v>0.08188812329619467</v>
+        <v>0.02533198740983888</v>
       </c>
       <c r="N22" t="n">
-        <v>1.010141688241887</v>
+        <v>1.000970525491455</v>
       </c>
       <c r="O22" t="n">
-        <v>0.08537427023669762</v>
+        <v>0.02641042255831874</v>
       </c>
       <c r="P22" t="n">
-        <v>92.00960525334895</v>
+        <v>96.70274942933712</v>
       </c>
       <c r="Q22" t="n">
-        <v>141.9835140729452</v>
+        <v>146.6766582489333</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9926862774651226</v>
+        <v>0.9992983216633013</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9922788711630536</v>
+        <v>0.9982861962450914</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9894734392877116</v>
+        <v>0.9987969992375216</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9923551523831465</v>
+        <v>0.9991580794869569</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9924460384333257</v>
+        <v>0.9991896925274162</v>
       </c>
       <c r="G23" t="n">
-        <v>0.006827038950992304</v>
+        <v>0.0006549859271888868</v>
       </c>
       <c r="H23" t="n">
-        <v>0.007207334850903893</v>
+        <v>0.001599760577916658</v>
       </c>
       <c r="I23" t="n">
-        <v>0.010233563845504</v>
+        <v>0.0004631149375131544</v>
       </c>
       <c r="J23" t="n">
-        <v>0.008640930574181747</v>
+        <v>0.001184275356390953</v>
       </c>
       <c r="K23" t="n">
-        <v>0.009437247209842873</v>
+        <v>0.000823695146952054</v>
       </c>
       <c r="L23" t="n">
-        <v>0.009664032807422772</v>
+        <v>0.002907358523435024</v>
       </c>
       <c r="M23" t="n">
-        <v>0.08262589758055464</v>
+        <v>0.02559269284754707</v>
       </c>
       <c r="N23" t="n">
-        <v>1.010325255343356</v>
+        <v>1.000990604710633</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0861434530997461</v>
+        <v>0.02668222676624482</v>
       </c>
       <c r="P23" t="n">
-        <v>91.97372847025818</v>
+        <v>96.66179361553527</v>
       </c>
       <c r="Q23" t="n">
-        <v>141.9476372898544</v>
+        <v>146.6357024351315</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9925536024143622</v>
+        <v>0.9992838038831837</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9921548580110948</v>
+        <v>0.9982707376261141</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9893515053200785</v>
+        <v>0.9987765382948045</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9922014448277794</v>
+        <v>0.9991387536941344</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9923290640030926</v>
+        <v>0.9991724468927283</v>
       </c>
       <c r="G24" t="n">
-        <v>0.006950885287115473</v>
+        <v>0.0006685376376718411</v>
       </c>
       <c r="H24" t="n">
-        <v>0.007323095684709186</v>
+        <v>0.001614190520177109</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01035210389641078</v>
+        <v>0.0004709917140734297</v>
       </c>
       <c r="J24" t="n">
-        <v>0.008814665405956176</v>
+        <v>0.001211459704352261</v>
       </c>
       <c r="K24" t="n">
-        <v>0.009583384651183476</v>
+        <v>0.0008412257092128453</v>
       </c>
       <c r="L24" t="n">
-        <v>0.009751058818676659</v>
+        <v>0.002937450096402979</v>
       </c>
       <c r="M24" t="n">
-        <v>0.08337196943287038</v>
+        <v>0.02585609478772541</v>
       </c>
       <c r="N24" t="n">
-        <v>1.010512561297371</v>
+        <v>1.001011100400211</v>
       </c>
       <c r="O24" t="n">
-        <v>0.08692128677539658</v>
+        <v>0.02695684227233374</v>
       </c>
       <c r="P24" t="n">
-        <v>91.93777249615286</v>
+        <v>96.62083572265801</v>
       </c>
       <c r="Q24" t="n">
-        <v>141.9116813157491</v>
+        <v>146.5947445422543</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9924182573674613</v>
+        <v>0.999268988998344</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9920282587188031</v>
+        <v>0.9982549626839775</v>
       </c>
       <c r="D25" t="n">
-        <v>0.989227250423659</v>
+        <v>0.9987557014680796</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9920444888575239</v>
+        <v>0.9991190236634865</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9922097170675225</v>
+        <v>0.999154850395865</v>
       </c>
       <c r="G25" t="n">
-        <v>0.007077223947436616</v>
+        <v>0.0006823666823713487</v>
       </c>
       <c r="H25" t="n">
-        <v>0.007441270566996795</v>
+        <v>0.001628915736221648</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01047290027524529</v>
+        <v>0.0004790131933672664</v>
       </c>
       <c r="J25" t="n">
-        <v>0.008992071903790137</v>
+        <v>0.00123921266762521</v>
       </c>
       <c r="K25" t="n">
-        <v>0.009732486089517711</v>
+        <v>0.0008591129304962384</v>
       </c>
       <c r="L25" t="n">
-        <v>0.009838976425853971</v>
+        <v>0.002967825697704301</v>
       </c>
       <c r="M25" t="n">
-        <v>0.08412623816287411</v>
+        <v>0.02612214926784067</v>
       </c>
       <c r="N25" t="n">
-        <v>1.010703636657702</v>
+        <v>1.00103201553175</v>
       </c>
       <c r="O25" t="n">
-        <v>0.08770766628678808</v>
+        <v>0.0272342232424762</v>
       </c>
       <c r="P25" t="n">
-        <v>91.90174709197329</v>
+        <v>96.57988677434157</v>
       </c>
       <c r="Q25" t="n">
-        <v>141.8756559115695</v>
+        <v>146.5537955939378</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9922801215912592</v>
+        <v>0.9992538596972361</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9918988892578633</v>
+        <v>0.998238860162605</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9891003661947306</v>
+        <v>0.9987344404898048</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9918841379939634</v>
+        <v>0.9990988471373761</v>
       </c>
       <c r="F26" t="n">
-        <v>0.992087811370601</v>
+        <v>0.9991368646596431</v>
       </c>
       <c r="G26" t="n">
-        <v>0.007206167631061328</v>
+        <v>0.0006964892208560196</v>
       </c>
       <c r="H26" t="n">
-        <v>0.007562031280121029</v>
+        <v>0.001643946733103899</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01059625280160366</v>
+        <v>0.0004871979567791631</v>
       </c>
       <c r="J26" t="n">
-        <v>0.009173315631458784</v>
+        <v>0.001267593687305719</v>
       </c>
       <c r="K26" t="n">
-        <v>0.009884784216531221</v>
+        <v>0.0008773958220424408</v>
       </c>
       <c r="L26" t="n">
-        <v>0.009927827819523281</v>
+        <v>0.002998526550998875</v>
       </c>
       <c r="M26" t="n">
-        <v>0.08488914907726033</v>
+        <v>0.02639108222214503</v>
       </c>
       <c r="N26" t="n">
-        <v>1.010898651871163</v>
+        <v>1.001053374545078</v>
       </c>
       <c r="O26" t="n">
-        <v>0.08850305589824303</v>
+        <v>0.02751460522941327</v>
       </c>
       <c r="P26" t="n">
-        <v>91.86563600844109</v>
+        <v>96.53891648204416</v>
       </c>
       <c r="Q26" t="n">
-        <v>141.8395448280373</v>
+        <v>146.5128253016404</v>
       </c>
     </row>
   </sheetData>
